--- a/RoadMap/NewMap_Excel/Map6_1.xlsx
+++ b/RoadMap/NewMap_Excel/Map6_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEA53E-FF08-4883-A9A1-40A31EF0D1BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49654E4-4846-4BBC-8974-4B0CC99CE004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{28C75793-38F3-4E5C-9AF9-177F310CD9E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="50">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="2"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VPr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -126,14 +122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VDs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VDr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cp</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -159,10 +147,6 @@
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NL</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -205,12 +189,36 @@
     <t>Gr</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VPr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,14 +255,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -267,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,19 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF660033"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,15 +433,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -526,25 +511,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -559,19 +529,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -580,9 +544,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D7DA22-7C5D-4830-9B0D-0A1F72FB06A2}">
   <dimension ref="A1:AH802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R799" sqref="R799"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L266" sqref="L266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1042,7 +1029,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1306,11 +1293,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="30"/>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1389,18 +1376,15 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="5" t="s">
-        <v>31</v>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="22"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="O11" s="23"/>
       <c r="P11" s="8" t="s">
         <v>15</v>
@@ -1428,29 +1412,21 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1480,18 +1456,15 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="8" t="s">
@@ -1713,27 +1686,27 @@
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="30"/>
       <c r="F19" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="I19" s="30"/>
       <c r="J19" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="M19" s="30"/>
       <c r="N19" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="8"/>
@@ -2032,28 +2005,28 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="5"/>
@@ -2346,35 +2319,35 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -2438,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -2478,7 +2451,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
@@ -2518,7 +2491,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
@@ -2558,7 +2531,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -2598,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -2638,7 +2611,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
@@ -2678,7 +2651,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
@@ -2718,7 +2691,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
@@ -2758,7 +2731,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
@@ -2798,7 +2771,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
@@ -2838,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
@@ -2878,7 +2851,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
@@ -2918,7 +2891,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
@@ -2958,7 +2931,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -2998,7 +2971,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -3038,7 +3011,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
@@ -3078,7 +3051,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
@@ -3118,7 +3091,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="17"/>
@@ -3158,7 +3131,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="17"/>
@@ -3198,7 +3171,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
@@ -3238,7 +3211,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
@@ -3278,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
@@ -3318,7 +3291,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
@@ -3358,7 +3331,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
@@ -3398,7 +3371,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
@@ -3438,7 +3411,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
@@ -3478,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
@@ -3518,7 +3491,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="17"/>
@@ -3558,7 +3531,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="17"/>
@@ -3598,7 +3571,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="17"/>
@@ -3638,7 +3611,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
@@ -3678,7 +3651,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
@@ -3718,7 +3691,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
@@ -3758,7 +3731,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
@@ -3798,7 +3771,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
@@ -3838,7 +3811,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="17"/>
@@ -3878,7 +3851,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
@@ -3918,7 +3891,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="17"/>
@@ -3958,7 +3931,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
@@ -3998,7 +3971,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="17"/>
@@ -4038,7 +4011,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="17"/>
@@ -4078,7 +4051,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="17"/>
@@ -4118,7 +4091,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="17"/>
@@ -4158,7 +4131,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="17"/>
@@ -4198,7 +4171,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="17"/>
@@ -4238,7 +4211,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="17"/>
@@ -4278,7 +4251,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="17"/>
@@ -4318,7 +4291,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="17"/>
@@ -4358,7 +4331,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="17"/>
@@ -4398,7 +4371,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
@@ -4438,7 +4411,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="17"/>
@@ -4478,7 +4451,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="17"/>
@@ -4594,23 +4567,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="5"/>
-      <c r="K91" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="O91" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="N91" s="9"/>
+      <c r="O91" s="5"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
@@ -4636,15 +4605,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="8"/>
-      <c r="C92" s="37"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="37"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="5"/>
-      <c r="K92" s="37"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="O92" s="37"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
@@ -4670,15 +4643,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="37"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="37"/>
-      <c r="I93" s="5"/>
-      <c r="K93" s="37"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="22"/>
+      <c r="J93" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="O93" s="37"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="5"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
@@ -4704,15 +4685,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="37"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="37"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="5"/>
-      <c r="K94" s="37"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="O94" s="37"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="5"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
@@ -4738,15 +4723,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="8"/>
-      <c r="C95" s="37"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="37"/>
-      <c r="I95" s="5"/>
-      <c r="K95" s="37"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" s="22"/>
+      <c r="J95" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="O95" s="37"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="5"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
@@ -4772,15 +4765,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="37"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="37"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="5"/>
-      <c r="K96" s="37"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="O96" s="37"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="5"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
@@ -4806,31 +4803,23 @@
         <v>96</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="37"/>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="37"/>
-      <c r="H97" t="s">
-        <v>32</v>
+      <c r="C97" s="5"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="I97" s="22"/>
-      <c r="J97" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K97" s="37"/>
-      <c r="L97" t="s">
-        <v>32</v>
-      </c>
-      <c r="M97" s="22"/>
-      <c r="N97" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O97" s="37"/>
+      <c r="J97" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
@@ -4856,15 +4845,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="37"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="37"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="5"/>
-      <c r="K98" s="37"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="O98" s="37"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="5"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
@@ -4890,15 +4883,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="37"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="37"/>
-      <c r="I99" s="5"/>
-      <c r="K99" s="37"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" s="22"/>
+      <c r="J99" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="O99" s="37"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="5"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
@@ -4924,15 +4925,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="37"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="37"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="5"/>
-      <c r="K100" s="37"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="O100" s="37"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="5"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
@@ -4958,15 +4963,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="37"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="37"/>
-      <c r="I101" s="5"/>
-      <c r="K101" s="37"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101" s="22"/>
+      <c r="J101" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
-      <c r="O101" s="37"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="5"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
@@ -4992,15 +5005,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="37"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="37"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="5"/>
-      <c r="K102" s="37"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="O102" s="37"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="5"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
@@ -5026,23 +5043,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="9"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="5"/>
-      <c r="K103" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
-      <c r="O103" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="N103" s="9"/>
+      <c r="O103" s="5"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
@@ -5070,27 +5083,20 @@
       <c r="B104" s="8"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="E104" s="30"/>
       <c r="F104" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="36"/>
-      <c r="J104" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="K104" s="5"/>
       <c r="L104" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M104" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="M104" s="30"/>
       <c r="N104" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="8"/>
@@ -5117,23 +5123,25 @@
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="20"/>
-      <c r="P105" s="18"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="30"/>
+      <c r="J105" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="8"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
@@ -5157,23 +5165,21 @@
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="18"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="8"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
@@ -5349,17 +5355,11 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -5393,21 +5393,16 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="B112" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="36"/>
       <c r="D112" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -5437,27 +5432,17 @@
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="G113" s="30"/>
       <c r="H113" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+        <v>47</v>
+      </c>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -5488,24 +5473,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="8"/>
-      <c r="C114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
+      <c r="J114" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114" s="30"/>
+      <c r="L114" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="6"/>
@@ -5533,33 +5513,28 @@
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="21"/>
       <c r="D115" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I115" s="36"/>
-      <c r="J115" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="8"/>
+      <c r="N115" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O115" s="32"/>
+      <c r="P115" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
@@ -5586,17 +5561,13 @@
       <c r="B116" s="8"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="22"/>
       <c r="H116" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -5633,24 +5604,16 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K117" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="K117" s="22"/>
       <c r="L117" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -5681,29 +5644,23 @@
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="8"/>
+      <c r="N118" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O118" s="23"/>
+      <c r="P118" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
@@ -5729,31 +5686,17 @@
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I119" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M119" s="36"/>
-      <c r="N119" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
       <c r="O119" s="6"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="5"/>
@@ -5781,25 +5724,19 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="D120" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="30"/>
       <c r="F120" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="6"/>
@@ -5829,33 +5766,23 @@
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" s="30"/>
       <c r="J121" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O121" s="39"/>
-      <c r="P121" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="8"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
@@ -5881,26 +5808,20 @@
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L122" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M122" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M122" s="30"/>
       <c r="N122" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="O122" s="6"/>
       <c r="P122" s="8"/>
@@ -5929,28 +5850,22 @@
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D123" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N123" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O123" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
@@ -5977,29 +5892,23 @@
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="22"/>
       <c r="J124" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N124" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O124" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P124" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="8"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
       <c r="S124" s="5"/>
@@ -6025,25 +5934,23 @@
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M125" s="22"/>
       <c r="N125" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O125" s="27"/>
-      <c r="P125" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="8"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
       <c r="S125" s="5"/>
@@ -6069,23 +5976,19 @@
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P126" s="25"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="8"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
       <c r="S126" s="5"/>
@@ -6111,23 +6014,19 @@
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37" t="s">
-        <v>28</v>
-      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="6"/>
-      <c r="P127" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="P127" s="8"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
       <c r="S127" s="5"/>
@@ -6153,36 +6052,16 @@
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128" s="37" t="s">
-        <v>29</v>
-      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="6"/>
       <c r="P128" s="8"/>
@@ -6218,7 +6097,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
@@ -6364,18 +6243,18 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F133" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="F133" s="30"/>
       <c r="G133" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>16</v>
@@ -6531,33 +6410,8 @@
       <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="21"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I137" s="36"/>
-      <c r="J137" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137" s="22"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="23"/>
-      <c r="P137" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B137" s="34"/>
+      <c r="P137" s="34"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
@@ -6581,21 +6435,8 @@
       <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="8"/>
+      <c r="B138" s="34"/>
+      <c r="P138" s="34"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
       <c r="S138" s="5"/>
@@ -6619,25 +6460,8 @@
       <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="22"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="23"/>
-      <c r="P139" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="34"/>
+      <c r="P139" s="34"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
       <c r="S139" s="5"/>
@@ -6661,21 +6485,33 @@
       <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="8"/>
+      <c r="B140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="30"/>
+      <c r="G140" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="23"/>
+      <c r="P140" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
       <c r="S140" s="5"/>
@@ -6699,33 +6535,21 @@
       <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L141" s="36"/>
-      <c r="M141" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N141" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O141" s="23"/>
-      <c r="P141" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="8"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
       <c r="S141" s="5"/>
@@ -6749,21 +6573,25 @@
       <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="8"/>
+      <c r="B142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="23"/>
+      <c r="P142" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
       <c r="S142" s="5"/>
@@ -6787,25 +6615,21 @@
       <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="22"/>
-      <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22"/>
-      <c r="N143" s="22"/>
-      <c r="O143" s="23"/>
-      <c r="P143" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B143" s="37"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="39"/>
+      <c r="P143" s="37"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
       <c r="S143" s="5"/>
@@ -7191,21 +7015,19 @@
         <v>16</v>
       </c>
       <c r="C153" s="21"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="5"/>
+      <c r="N153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N153" s="22"/>
       <c r="O153" s="23"/>
       <c r="P153" s="8" t="s">
         <v>15</v>
@@ -7237,21 +7059,19 @@
         <v>16</v>
       </c>
       <c r="C154" s="21"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="5" t="s">
+      <c r="M154" s="5"/>
+      <c r="N154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N154" s="22"/>
       <c r="O154" s="23"/>
       <c r="P154" s="8" t="s">
         <v>15</v>
@@ -7284,19 +7104,17 @@
       </c>
       <c r="C155" s="21"/>
       <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="5"/>
+      <c r="F155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5" t="s">
+      <c r="L155" s="5"/>
+      <c r="M155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M155" s="22"/>
       <c r="N155" s="22"/>
       <c r="O155" s="23"/>
       <c r="P155" s="8" t="s">
@@ -7330,19 +7148,17 @@
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="5"/>
+      <c r="F156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5" t="s">
+      <c r="L156" s="5"/>
+      <c r="M156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M156" s="22"/>
       <c r="N156" s="22"/>
       <c r="O156" s="23"/>
       <c r="P156" s="8" t="s">
@@ -7376,19 +7192,15 @@
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="5" t="s">
+      <c r="E157" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="5" t="s">
+      <c r="M157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L157" s="22"/>
-      <c r="M157" s="22"/>
       <c r="N157" s="22"/>
       <c r="O157" s="23"/>
       <c r="P157" s="8" t="s">
@@ -7422,19 +7234,15 @@
       </c>
       <c r="C158" s="21"/>
       <c r="D158" s="22"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="5" t="s">
+      <c r="M158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L158" s="22"/>
-      <c r="M158" s="22"/>
       <c r="N158" s="22"/>
       <c r="O158" s="23"/>
       <c r="P158" s="8" t="s">
@@ -7468,17 +7276,13 @@
       </c>
       <c r="C159" s="21"/>
       <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I159" s="5"/>
-      <c r="K159" s="5" t="s">
+      <c r="M159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L159" s="22"/>
-      <c r="M159" s="22"/>
       <c r="N159" s="22"/>
       <c r="O159" s="23"/>
       <c r="P159" s="8" t="s">
@@ -7512,17 +7316,13 @@
       </c>
       <c r="C160" s="21"/>
       <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="5" t="s">
+      <c r="E160" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I160" s="5"/>
-      <c r="K160" s="5" t="s">
+      <c r="M160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L160" s="22"/>
-      <c r="M160" s="22"/>
       <c r="N160" s="22"/>
       <c r="O160" s="23"/>
       <c r="P160" s="8" t="s">
@@ -7556,19 +7356,15 @@
       </c>
       <c r="C161" s="21"/>
       <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="5" t="s">
+      <c r="E161" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L161" s="22"/>
-      <c r="M161" s="22"/>
       <c r="N161" s="22"/>
       <c r="O161" s="23"/>
       <c r="P161" s="8" t="s">
@@ -7602,17 +7398,13 @@
       </c>
       <c r="C162" s="21"/>
       <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I162" s="5"/>
-      <c r="K162" s="5" t="s">
+      <c r="M162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L162" s="22"/>
-      <c r="M162" s="22"/>
       <c r="N162" s="22"/>
       <c r="O162" s="23"/>
       <c r="P162" s="8" t="s">
@@ -7646,19 +7438,27 @@
       </c>
       <c r="C163" s="21"/>
       <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
+      <c r="E163" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G163" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L163" s="22"/>
-      <c r="M163" s="22"/>
       <c r="N163" s="22"/>
       <c r="O163" s="23"/>
       <c r="P163" s="8" t="s">
@@ -7688,7 +7488,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="17"/>
@@ -7728,7 +7528,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="17"/>
@@ -7768,7 +7568,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="17"/>
@@ -7808,7 +7608,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="17"/>
@@ -7848,7 +7648,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168" s="16"/>
       <c r="D168" s="17"/>
@@ -7888,7 +7688,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="17"/>
@@ -7928,7 +7728,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="17"/>
@@ -7968,7 +7768,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="17"/>
@@ -8008,7 +7808,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="17"/>
@@ -8048,7 +7848,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C173" s="16"/>
       <c r="D173" s="17"/>
@@ -8088,7 +7888,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="17"/>
@@ -8128,7 +7928,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
@@ -8168,7 +7968,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C176" s="16"/>
       <c r="D176" s="17"/>
@@ -8208,7 +8008,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C177" s="16"/>
       <c r="D177" s="17"/>
@@ -8248,7 +8048,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="17"/>
@@ -8288,7 +8088,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C179" s="16"/>
       <c r="D179" s="17"/>
@@ -8328,7 +8128,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="17"/>
@@ -8368,7 +8168,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="17"/>
@@ -8408,7 +8208,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="17"/>
@@ -8448,7 +8248,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="17"/>
@@ -8488,7 +8288,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="17"/>
@@ -8528,7 +8328,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="17"/>
@@ -8568,7 +8368,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="17"/>
@@ -8608,7 +8408,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="17"/>
@@ -8648,7 +8448,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C188" s="16"/>
       <c r="D188" s="17"/>
@@ -8688,7 +8488,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C189" s="16"/>
       <c r="D189" s="17"/>
@@ -8728,7 +8528,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="17"/>
@@ -8768,7 +8568,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="17"/>
@@ -8808,7 +8608,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="17"/>
@@ -8848,7 +8648,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="17"/>
@@ -8888,7 +8688,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="17"/>
@@ -8928,7 +8728,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" s="16"/>
       <c r="D195" s="17"/>
@@ -8968,7 +8768,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="16"/>
       <c r="D196" s="17"/>
@@ -9008,7 +8808,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C197" s="16"/>
       <c r="D197" s="17"/>
@@ -9048,7 +8848,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="17"/>
@@ -9088,7 +8888,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" s="16"/>
       <c r="D199" s="17"/>
@@ -9128,7 +8928,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="17"/>
@@ -9168,7 +8968,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C201" s="16"/>
       <c r="D201" s="17"/>
@@ -9208,7 +9008,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C202" s="16"/>
       <c r="D202" s="17"/>
@@ -9248,7 +9048,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C203" s="16"/>
       <c r="D203" s="17"/>
@@ -9288,7 +9088,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C204" s="16"/>
       <c r="D204" s="17"/>
@@ -9328,7 +9128,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C205" s="16"/>
       <c r="D205" s="17"/>
@@ -9368,7 +9168,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="17"/>
@@ -9408,7 +9208,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C207" s="16"/>
       <c r="D207" s="17"/>
@@ -9448,7 +9248,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C208" s="16"/>
       <c r="D208" s="17"/>
@@ -9488,7 +9288,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C209" s="16"/>
       <c r="D209" s="17"/>
@@ -9528,7 +9328,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" s="16"/>
       <c r="D210" s="17"/>
@@ -9568,7 +9368,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C211" s="16"/>
       <c r="D211" s="17"/>
@@ -9608,7 +9408,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="17"/>
@@ -9648,7 +9448,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="17"/>
@@ -9688,7 +9488,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="17"/>
@@ -9728,7 +9528,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="17"/>
@@ -9768,7 +9568,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="17"/>
@@ -9808,7 +9608,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="17"/>
@@ -9848,7 +9648,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="17"/>
@@ -9888,7 +9688,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="17"/>
@@ -9935,7 +9735,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -9974,7 +9774,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
-      <c r="I221" s="27"/>
+      <c r="I221" s="24"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
@@ -10012,7 +9812,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
-      <c r="I222" s="27"/>
+      <c r="I222" s="24"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
@@ -10050,7 +9850,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="27"/>
+      <c r="I223" s="24"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
@@ -10088,11 +9888,11 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="27"/>
+      <c r="I224" s="24"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
@@ -10124,15 +9924,14 @@
       <c r="B225" s="8"/>
       <c r="C225" s="4"/>
       <c r="D225" s="5"/>
-      <c r="E225" s="5" t="s">
+      <c r="F225" s="5"/>
+      <c r="G225" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F225" s="22"/>
-      <c r="G225" s="22"/>
       <c r="H225" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I225" s="27"/>
+      <c r="I225" s="24"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
@@ -10166,7 +9965,7 @@
       <c r="B226" s="8"/>
       <c r="C226" s="4"/>
       <c r="D226" s="5"/>
-      <c r="I226" s="27"/>
+      <c r="I226" s="24"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
@@ -10204,12 +10003,12 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
-      <c r="I227" s="27"/>
+      <c r="I227" s="24"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N227" s="5"/>
       <c r="O227" s="6"/>
@@ -10244,7 +10043,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
-      <c r="I228" s="27"/>
+      <c r="I228" s="24"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
@@ -10282,7 +10081,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
-      <c r="I229" s="27"/>
+      <c r="I229" s="24"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
       <c r="L229" s="5"/>
@@ -10313,22 +10112,22 @@
       <c r="A230" s="3">
         <v>229</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C230" s="21"/>
-      <c r="D230" s="22"/>
-      <c r="E230" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B230" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D230" s="40"/>
+      <c r="E230" s="40"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="27"/>
+      <c r="I230" s="24"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
       <c r="L230" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
@@ -10364,7 +10163,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
-      <c r="I231" s="27"/>
+      <c r="I231" s="24"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
@@ -10402,7 +10201,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
-      <c r="I232" s="27"/>
+      <c r="I232" s="24"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
@@ -10440,12 +10239,12 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
-      <c r="I233" s="27"/>
+      <c r="I233" s="24"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
       <c r="M233" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N233" s="5"/>
       <c r="O233" s="6"/>
@@ -10476,7 +10275,7 @@
       <c r="B234" s="8"/>
       <c r="C234" s="4"/>
       <c r="D234" s="5"/>
-      <c r="I234" s="27"/>
+      <c r="I234" s="24"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
       <c r="L234" s="5"/>
@@ -10510,15 +10309,13 @@
       <c r="B235" s="8"/>
       <c r="C235" s="4"/>
       <c r="D235" s="5"/>
-      <c r="E235" s="5" t="s">
+      <c r="G235" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
       <c r="H235" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I235" s="27"/>
+      <c r="I235" s="24"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
       <c r="L235" s="5"/>
@@ -10552,11 +10349,11 @@
       <c r="B236" s="8"/>
       <c r="C236" s="4"/>
       <c r="D236" s="5"/>
-      <c r="I236" s="27"/>
+      <c r="I236" s="24"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
       <c r="L236" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -10592,7 +10389,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
-      <c r="I237" s="27"/>
+      <c r="I237" s="24"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
@@ -10630,7 +10427,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
-      <c r="I238" s="27"/>
+      <c r="I238" s="24"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
@@ -10668,12 +10465,12 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
-      <c r="I239" s="27"/>
+      <c r="I239" s="24"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N239" s="5"/>
       <c r="O239" s="6"/>
@@ -10708,7 +10505,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
-      <c r="I240" s="27"/>
+      <c r="I240" s="24"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
@@ -10746,7 +10543,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
-      <c r="I241" s="29"/>
+      <c r="I241" s="25"/>
       <c r="J241" s="9"/>
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
@@ -10778,20 +10575,20 @@
         <v>241</v>
       </c>
       <c r="B242" s="8"/>
-      <c r="E242" s="5" t="s">
+      <c r="D242" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" s="31"/>
+      <c r="F242" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F242" s="38"/>
-      <c r="G242" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I242" s="29"/>
+      <c r="I242" s="25"/>
       <c r="K242" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L242" s="31"/>
+      <c r="M242" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="L242" s="38"/>
-      <c r="M242" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="P242" s="8"/>
       <c r="Q242" s="5"/>
@@ -10817,23 +10614,23 @@
       <c r="A243" s="3">
         <v>242</v>
       </c>
-      <c r="B243" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C243" s="16"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="30"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="17"/>
-      <c r="O243" s="20"/>
-      <c r="P243" s="18"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="8"/>
       <c r="Q243" s="5"/>
       <c r="R243" s="5"/>
       <c r="S243" s="5"/>
@@ -10858,22 +10655,24 @@
         <v>243</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C244" s="16"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-      <c r="I244" s="30"/>
-      <c r="J244" s="17"/>
-      <c r="K244" s="17"/>
-      <c r="L244" s="17"/>
-      <c r="M244" s="17"/>
-      <c r="N244" s="17"/>
-      <c r="O244" s="20"/>
-      <c r="P244" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="C244" s="21"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
+      <c r="I244" s="22"/>
+      <c r="J244" s="22"/>
+      <c r="K244" s="22"/>
+      <c r="L244" s="22"/>
+      <c r="M244" s="22"/>
+      <c r="N244" s="22"/>
+      <c r="O244" s="23"/>
+      <c r="P244" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="Q244" s="5"/>
       <c r="R244" s="5"/>
       <c r="S244" s="5"/>
@@ -10904,7 +10703,9 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
-      <c r="I245" s="27"/>
+      <c r="I245" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
@@ -10942,7 +10743,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
-      <c r="I246" s="27"/>
+      <c r="I246" s="24"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
@@ -10980,7 +10781,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
-      <c r="I247" s="27"/>
+      <c r="I247" s="24"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
@@ -11018,7 +10819,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
-      <c r="I248" s="27"/>
+      <c r="I248" s="24"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
@@ -11054,11 +10855,11 @@
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
-      <c r="I249" s="27"/>
+      <c r="I249" s="24"/>
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
@@ -11096,13 +10897,11 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
-      <c r="I250" s="27"/>
+      <c r="I250" s="24"/>
       <c r="J250" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K250" s="31"/>
-      <c r="L250" s="22"/>
-      <c r="M250" s="5" t="s">
+      <c r="K250" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N250" s="5"/>
@@ -11138,7 +10937,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
-      <c r="I251" s="27"/>
+      <c r="I251" s="24"/>
       <c r="N251" s="5"/>
       <c r="O251" s="5"/>
       <c r="P251" s="8"/>
@@ -11169,12 +10968,12 @@
       <c r="C252" s="4"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
-      <c r="I252" s="27"/>
+      <c r="I252" s="24"/>
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
@@ -11212,7 +11011,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
-      <c r="I253" s="27"/>
+      <c r="I253" s="24"/>
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
       <c r="L253" s="5"/>
@@ -11250,7 +11049,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
-      <c r="I254" s="27"/>
+      <c r="I254" s="24"/>
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
@@ -11286,19 +11085,17 @@
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
-      <c r="I255" s="27"/>
+      <c r="I255" s="24"/>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
-      <c r="M255" s="5" t="s">
+      <c r="O255" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N255" s="22"/>
-      <c r="O255" s="22"/>
       <c r="P255" s="8" t="s">
         <v>15</v>
       </c>
@@ -11332,7 +11129,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
-      <c r="I256" s="27"/>
+      <c r="I256" s="24"/>
       <c r="J256" s="5"/>
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
@@ -11370,7 +11167,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
-      <c r="I257" s="27"/>
+      <c r="I257" s="24"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
@@ -11405,12 +11202,12 @@
       <c r="C258" s="4"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
-      <c r="I258" s="27"/>
+      <c r="I258" s="24"/>
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
@@ -11448,7 +11245,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
-      <c r="I259" s="27"/>
+      <c r="I259" s="24"/>
       <c r="N259" s="5"/>
       <c r="O259" s="5"/>
       <c r="P259" s="8"/>
@@ -11482,7 +11279,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
-      <c r="I260" s="27"/>
+      <c r="I260" s="24"/>
       <c r="J260" s="5"/>
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
@@ -11518,17 +11315,15 @@
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
-      <c r="I261" s="27"/>
+      <c r="I261" s="24"/>
       <c r="J261" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K261" s="22"/>
-      <c r="L261" s="22"/>
-      <c r="M261" s="5" t="s">
+      <c r="K261" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N261" s="5"/>
@@ -11564,7 +11359,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
-      <c r="I262" s="27"/>
+      <c r="I262" s="24"/>
       <c r="J262" s="5"/>
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
@@ -11602,7 +11397,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
-      <c r="I263" s="27"/>
+      <c r="I263" s="24"/>
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
@@ -11637,12 +11432,12 @@
       <c r="C264" s="4"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
-      <c r="I264" s="27"/>
+      <c r="I264" s="24"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
@@ -11680,7 +11475,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
-      <c r="I265" s="27"/>
+      <c r="I265" s="24"/>
       <c r="J265" s="5"/>
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
@@ -11718,7 +11513,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
-      <c r="I266" s="27"/>
+      <c r="I266" s="24"/>
       <c r="J266" s="5"/>
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
@@ -11751,27 +11546,23 @@
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5" t="s">
+      <c r="D267" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E267" s="31"/>
+      <c r="F267" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F267" s="38"/>
-      <c r="G267" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="H267" s="5"/>
-      <c r="I267" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="I267" s="24"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="5" t="s">
+      <c r="L267" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M267" s="31"/>
+      <c r="N267" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L267" s="38"/>
-      <c r="M267" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N267" s="5"/>
       <c r="O267" s="5"/>
       <c r="P267" s="8"/>
       <c r="Q267" s="5"/>
@@ -11797,23 +11588,23 @@
       <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="B268" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C268" s="16"/>
-      <c r="D268" s="17"/>
-      <c r="E268" s="17"/>
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="17"/>
-      <c r="I268" s="17"/>
-      <c r="J268" s="17"/>
-      <c r="K268" s="17"/>
-      <c r="L268" s="17"/>
-      <c r="M268" s="17"/>
-      <c r="N268" s="17"/>
-      <c r="O268" s="17"/>
-      <c r="P268" s="18"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="8"/>
       <c r="Q268" s="5"/>
       <c r="R268" s="5"/>
       <c r="S268" s="5"/>
@@ -11838,22 +11629,24 @@
         <v>268</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C269" s="16"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="17"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="17"/>
-      <c r="O269" s="17"/>
-      <c r="P269" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C269" s="21"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="22"/>
+      <c r="J269" s="22"/>
+      <c r="K269" s="22"/>
+      <c r="L269" s="22"/>
+      <c r="M269" s="22"/>
+      <c r="N269" s="22"/>
+      <c r="O269" s="23"/>
+      <c r="P269" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q269" s="5"/>
       <c r="R269" s="5"/>
       <c r="S269" s="5"/>
@@ -11877,33 +11670,23 @@
       <c r="A270" s="3">
         <v>269</v>
       </c>
-      <c r="B270" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C270" s="21"/>
-      <c r="D270" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B270" s="8"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="5"/>
       <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
-      <c r="G270" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H270" s="22"/>
-      <c r="I270" s="22"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J270" s="22"/>
       <c r="K270" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
-      <c r="N270" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O270" s="22"/>
-      <c r="P270" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="8"/>
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
       <c r="S270" s="5"/>
@@ -11927,33 +11710,23 @@
       <c r="A271" s="3">
         <v>270</v>
       </c>
-      <c r="B271" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C271" s="21"/>
-      <c r="D271" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="5"/>
       <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H271" s="22"/>
-      <c r="I271" s="22"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J271" s="22"/>
       <c r="K271" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
-      <c r="N271" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O271" s="22"/>
-      <c r="P271" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="8"/>
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
       <c r="S271" s="5"/>
@@ -11977,33 +11750,23 @@
       <c r="A272" s="3">
         <v>271</v>
       </c>
-      <c r="B272" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C272" s="21"/>
-      <c r="D272" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B272" s="8"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="5"/>
       <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H272" s="22"/>
-      <c r="I272" s="22"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J272" s="22"/>
       <c r="K272" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
-      <c r="N272" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O272" s="22"/>
-      <c r="P272" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="8"/>
       <c r="Q272" s="5"/>
       <c r="R272" s="5"/>
       <c r="S272" s="5"/>
@@ -12027,33 +11790,23 @@
       <c r="A273" s="3">
         <v>272</v>
       </c>
-      <c r="B273" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C273" s="21"/>
-      <c r="D273" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="5"/>
       <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H273" s="22"/>
-      <c r="I273" s="22"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J273" s="22"/>
       <c r="K273" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
-      <c r="N273" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O273" s="22"/>
-      <c r="P273" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="8"/>
       <c r="Q273" s="5"/>
       <c r="R273" s="5"/>
       <c r="S273" s="5"/>
@@ -12077,33 +11830,23 @@
       <c r="A274" s="3">
         <v>273</v>
       </c>
-      <c r="B274" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C274" s="21"/>
-      <c r="D274" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B274" s="8"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="5"/>
       <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
-      <c r="G274" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H274" s="22"/>
-      <c r="I274" s="22"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J274" s="22"/>
       <c r="K274" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
-      <c r="N274" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O274" s="22"/>
-      <c r="P274" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="8"/>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -12127,33 +11870,23 @@
       <c r="A275" s="3">
         <v>274</v>
       </c>
-      <c r="B275" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C275" s="21"/>
-      <c r="D275" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B275" s="8"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="5"/>
       <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
-      <c r="G275" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H275" s="22"/>
-      <c r="I275" s="22"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J275" s="22"/>
       <c r="K275" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
-      <c r="N275" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O275" s="22"/>
-      <c r="P275" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="8"/>
       <c r="Q275" s="5"/>
       <c r="R275" s="5"/>
       <c r="S275" s="5"/>
@@ -12177,33 +11910,23 @@
       <c r="A276" s="3">
         <v>275</v>
       </c>
-      <c r="B276" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C276" s="21"/>
-      <c r="D276" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B276" s="8"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="5"/>
       <c r="E276" s="9"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H276" s="22"/>
-      <c r="I276" s="22"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J276" s="22"/>
       <c r="K276" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
-      <c r="N276" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O276" s="22"/>
-      <c r="P276" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="8"/>
       <c r="Q276" s="5"/>
       <c r="R276" s="5"/>
       <c r="S276" s="5"/>
@@ -12227,33 +11950,23 @@
       <c r="A277" s="3">
         <v>276</v>
       </c>
-      <c r="B277" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C277" s="21"/>
-      <c r="D277" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B277" s="8"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="5"/>
       <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H277" s="22"/>
-      <c r="I277" s="22"/>
+      <c r="H277" s="9"/>
+      <c r="I277" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J277" s="22"/>
       <c r="K277" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
-      <c r="N277" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O277" s="22"/>
-      <c r="P277" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="8"/>
       <c r="Q277" s="5"/>
       <c r="R277" s="5"/>
       <c r="S277" s="5"/>
@@ -12277,33 +11990,23 @@
       <c r="A278" s="3">
         <v>277</v>
       </c>
-      <c r="B278" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C278" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B278" s="8"/>
+      <c r="C278" s="4"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H278" s="22"/>
-      <c r="I278" s="22"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J278" s="22"/>
       <c r="K278" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
-      <c r="N278" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O278" s="22"/>
-      <c r="P278" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="8"/>
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
       <c r="S278" s="5"/>
@@ -12327,33 +12030,23 @@
       <c r="A279" s="3">
         <v>278</v>
       </c>
-      <c r="B279" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C279" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B279" s="8"/>
+      <c r="C279" s="4"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
-      <c r="F279" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G279" s="31"/>
-      <c r="H279" s="22"/>
-      <c r="I279" s="22"/>
+      <c r="H279" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I279" s="26"/>
       <c r="J279" s="22"/>
       <c r="K279" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
-      <c r="N279" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O279" s="22"/>
-      <c r="P279" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="8"/>
       <c r="Q279" s="5"/>
       <c r="R279" s="5"/>
       <c r="S279" s="5"/>
@@ -12377,33 +12070,22 @@
       <c r="A280" s="3">
         <v>279</v>
       </c>
-      <c r="B280" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C280" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B280" s="8"/>
+      <c r="C280" s="4"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
-      <c r="F280" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G280" s="31"/>
-      <c r="H280" s="22"/>
-      <c r="I280" s="22"/>
-      <c r="J280" s="22"/>
-      <c r="K280" s="5" t="s">
-        <v>31</v>
+      <c r="H280" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I280" s="26"/>
+      <c r="J280" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
-      <c r="N280" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O280" s="22"/>
-      <c r="P280" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="8"/>
       <c r="Q280" s="5"/>
       <c r="R280" s="5"/>
       <c r="S280" s="5"/>
@@ -12427,33 +12109,22 @@
       <c r="A281" s="3">
         <v>280</v>
       </c>
-      <c r="B281" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C281" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B281" s="8"/>
+      <c r="C281" s="4"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
-      <c r="F281" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G281" s="31"/>
-      <c r="H281" s="22"/>
-      <c r="I281" s="22"/>
-      <c r="J281" s="22"/>
-      <c r="K281" s="5" t="s">
-        <v>31</v>
+      <c r="H281" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I281" s="26"/>
+      <c r="J281" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
-      <c r="N281" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O281" s="22"/>
-      <c r="P281" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N281" s="5"/>
+      <c r="O281" s="5"/>
+      <c r="P281" s="8"/>
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
       <c r="S281" s="5"/>
@@ -12477,34 +12148,21 @@
       <c r="A282" s="3">
         <v>281</v>
       </c>
-      <c r="B282" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C282" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G282" s="31"/>
-      <c r="H282" s="22"/>
-      <c r="I282" s="22"/>
-      <c r="J282" s="22"/>
-      <c r="K282" s="5" t="s">
-        <v>31</v>
+      <c r="B282" s="8"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="5"/>
+      <c r="H282" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I282" s="26"/>
+      <c r="J282" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
-      <c r="N282" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O282" s="22"/>
-      <c r="P282" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N282" s="5"/>
+      <c r="O282" s="5"/>
+      <c r="P282" s="8"/>
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
       <c r="S282" s="5"/>
@@ -12528,32 +12186,21 @@
       <c r="A283" s="3">
         <v>282</v>
       </c>
-      <c r="B283" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C283" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B283" s="8"/>
+      <c r="C283" s="4"/>
       <c r="D283" s="5"/>
-      <c r="F283" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G283" s="31"/>
-      <c r="H283" s="22"/>
-      <c r="I283" s="22"/>
-      <c r="J283" s="22"/>
-      <c r="K283" s="5" t="s">
-        <v>31</v>
+      <c r="H283" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I283" s="26"/>
+      <c r="J283" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
-      <c r="N283" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O283" s="22"/>
-      <c r="P283" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N283" s="5"/>
+      <c r="O283" s="5"/>
+      <c r="P283" s="8"/>
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
       <c r="S283" s="5"/>
@@ -12577,32 +12224,21 @@
       <c r="A284" s="3">
         <v>283</v>
       </c>
-      <c r="B284" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C284" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B284" s="8"/>
+      <c r="C284" s="4"/>
       <c r="D284" s="5"/>
-      <c r="F284" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G284" s="31"/>
-      <c r="H284" s="22"/>
-      <c r="I284" s="22"/>
-      <c r="J284" s="22"/>
-      <c r="K284" s="5" t="s">
-        <v>31</v>
+      <c r="H284" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I284" s="26"/>
+      <c r="J284" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
-      <c r="N284" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O284" s="22"/>
-      <c r="P284" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N284" s="5"/>
+      <c r="O284" s="5"/>
+      <c r="P284" s="8"/>
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
       <c r="S284" s="5"/>
@@ -12626,34 +12262,21 @@
       <c r="A285" s="3">
         <v>284</v>
       </c>
-      <c r="B285" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G285" s="31"/>
-      <c r="H285" s="22"/>
-      <c r="I285" s="22"/>
-      <c r="J285" s="22"/>
-      <c r="K285" s="5" t="s">
-        <v>31</v>
+      <c r="B285" s="8"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="5"/>
+      <c r="H285" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I285" s="26"/>
+      <c r="J285" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
-      <c r="N285" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O285" s="22"/>
-      <c r="P285" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N285" s="5"/>
+      <c r="O285" s="5"/>
+      <c r="P285" s="8"/>
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
       <c r="S285" s="5"/>
@@ -12677,33 +12300,22 @@
       <c r="A286" s="3">
         <v>285</v>
       </c>
-      <c r="B286" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C286" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B286" s="8"/>
+      <c r="C286" s="4"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
-      <c r="F286" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G286" s="31"/>
-      <c r="H286" s="22"/>
-      <c r="I286" s="22"/>
-      <c r="J286" s="22"/>
-      <c r="K286" s="5" t="s">
-        <v>31</v>
+      <c r="H286" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I286" s="26"/>
+      <c r="J286" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
-      <c r="N286" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O286" s="22"/>
-      <c r="P286" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="8"/>
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
       <c r="S286" s="5"/>
@@ -12731,25 +12343,18 @@
       <c r="C287" s="4"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
-      <c r="F287" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G287" s="31"/>
-      <c r="H287" s="22"/>
-      <c r="I287" s="22"/>
-      <c r="J287" s="22"/>
-      <c r="K287" s="5" t="s">
-        <v>31</v>
+      <c r="H287" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I287" s="26"/>
+      <c r="J287" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
-      <c r="N287" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O287" s="22"/>
-      <c r="P287" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="8"/>
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
       <c r="S287" s="5"/>
@@ -12774,36 +12379,29 @@
         <v>287</v>
       </c>
       <c r="B288" s="8"/>
-      <c r="C288" s="5" t="s">
+      <c r="D288" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E288" s="30"/>
+      <c r="F288" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D288" s="36"/>
-      <c r="E288" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F288" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G288" s="31"/>
-      <c r="H288" s="22"/>
-      <c r="I288" s="22"/>
+      <c r="H288" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I288" s="26"/>
       <c r="J288" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K288" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L288" s="36"/>
-      <c r="M288" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M288" s="30"/>
       <c r="N288" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O288" s="22"/>
-      <c r="P288" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O288" s="5"/>
+      <c r="P288" s="8"/>
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
       <c r="S288" s="5"/>
@@ -12827,23 +12425,25 @@
       <c r="A289" s="3">
         <v>288</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C289" s="16"/>
-      <c r="D289" s="17"/>
-      <c r="E289" s="17"/>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="17"/>
-      <c r="I289" s="17"/>
-      <c r="J289" s="17"/>
-      <c r="K289" s="17"/>
-      <c r="L289" s="17"/>
-      <c r="M289" s="17"/>
-      <c r="N289" s="17"/>
-      <c r="O289" s="17"/>
-      <c r="P289" s="18"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I289" s="26"/>
+      <c r="J289" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="8"/>
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
       <c r="S289" s="5"/>
@@ -12868,22 +12468,24 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C290" s="16"/>
-      <c r="D290" s="17"/>
-      <c r="E290" s="17"/>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="17"/>
-      <c r="I290" s="17"/>
-      <c r="J290" s="17"/>
-      <c r="K290" s="17"/>
-      <c r="L290" s="17"/>
-      <c r="M290" s="17"/>
-      <c r="N290" s="17"/>
-      <c r="O290" s="17"/>
-      <c r="P290" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="C290" s="21"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="22"/>
+      <c r="J290" s="22"/>
+      <c r="K290" s="22"/>
+      <c r="L290" s="22"/>
+      <c r="M290" s="22"/>
+      <c r="N290" s="22"/>
+      <c r="O290" s="22"/>
+      <c r="P290" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
       <c r="S290" s="5"/>
@@ -12907,27 +12509,19 @@
       <c r="A291" s="3">
         <v>290</v>
       </c>
-      <c r="B291" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C291" s="21"/>
-      <c r="D291" s="31"/>
-      <c r="E291" s="31"/>
-      <c r="F291" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B291" s="8"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="L291" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M291" s="31"/>
-      <c r="N291" s="22"/>
-      <c r="O291" s="22"/>
-      <c r="P291" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L291" s="5"/>
+      <c r="M291" s="9"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="8"/>
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
       <c r="S291" s="5"/>
@@ -12951,27 +12545,19 @@
       <c r="A292" s="3">
         <v>291</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C292" s="21"/>
-      <c r="D292" s="31"/>
-      <c r="E292" s="31"/>
-      <c r="F292" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B292" s="8"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="L292" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M292" s="31"/>
-      <c r="N292" s="22"/>
-      <c r="O292" s="22"/>
-      <c r="P292" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L292" s="5"/>
+      <c r="M292" s="9"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="8"/>
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
       <c r="S292" s="5"/>
@@ -12995,27 +12581,19 @@
       <c r="A293" s="3">
         <v>292</v>
       </c>
-      <c r="B293" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C293" s="21"/>
-      <c r="D293" s="31"/>
-      <c r="E293" s="31"/>
-      <c r="F293" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B293" s="8"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="L293" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M293" s="31"/>
-      <c r="N293" s="22"/>
-      <c r="O293" s="22"/>
-      <c r="P293" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L293" s="5"/>
+      <c r="M293" s="9"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="8"/>
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
       <c r="S293" s="5"/>
@@ -13040,28 +12618,24 @@
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C294" s="21"/>
       <c r="D294" s="22"/>
-      <c r="E294" s="22"/>
-      <c r="F294" s="5" t="s">
+      <c r="E294" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G294" s="5"/>
-      <c r="H294" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I294" s="5"/>
-      <c r="K294" s="5" t="s">
+      <c r="I294" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L294" s="5"/>
+      <c r="N294" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L294" s="22"/>
-      <c r="M294" s="22"/>
-      <c r="N294" s="22"/>
       <c r="O294" s="22"/>
       <c r="P294" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
@@ -13087,26 +12661,22 @@
         <v>294</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C295" s="21"/>
       <c r="D295" s="22"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="5" t="s">
+      <c r="E295" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G295" s="5"/>
-      <c r="H295" s="5"/>
-      <c r="I295" s="5"/>
-      <c r="K295" s="5" t="s">
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="N295" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L295" s="22"/>
-      <c r="M295" s="22"/>
-      <c r="N295" s="22"/>
       <c r="O295" s="22"/>
       <c r="P295" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
@@ -13132,26 +12702,22 @@
         <v>295</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C296" s="21"/>
-      <c r="D296" s="22"/>
-      <c r="E296" s="5" t="s">
+      <c r="D296" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F296" s="5"/>
+      <c r="E296" s="5"/>
       <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
-      <c r="J296" s="5" t="s">
+      <c r="K296" s="5"/>
+      <c r="M296" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K296" s="40"/>
-      <c r="L296" s="22"/>
-      <c r="M296" s="22"/>
-      <c r="N296" s="22"/>
+      <c r="N296" s="33"/>
       <c r="O296" s="22"/>
       <c r="P296" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
@@ -13177,26 +12743,22 @@
         <v>296</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C297" s="21"/>
-      <c r="D297" s="22"/>
-      <c r="E297" s="5" t="s">
+      <c r="D297" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F297" s="5"/>
+      <c r="E297" s="5"/>
       <c r="G297" s="5"/>
-      <c r="H297" s="5"/>
-      <c r="J297" s="5" t="s">
+      <c r="K297" s="5"/>
+      <c r="M297" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K297" s="22"/>
-      <c r="L297" s="22"/>
-      <c r="M297" s="22"/>
       <c r="N297" s="22"/>
       <c r="O297" s="22"/>
       <c r="P297" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
@@ -13222,28 +12784,23 @@
         <v>297</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C298" s="21"/>
-      <c r="D298" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E298" s="5"/>
-      <c r="F298" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G298" s="5"/>
-      <c r="I298" s="5" t="s">
+      <c r="D298" s="5"/>
+      <c r="G298" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L298" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J298" s="22"/>
-      <c r="K298" s="22"/>
-      <c r="L298" s="22"/>
       <c r="M298" s="22"/>
       <c r="N298" s="22"/>
       <c r="O298" s="22"/>
       <c r="P298" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
@@ -13268,27 +12825,19 @@
       <c r="A299" s="3">
         <v>298</v>
       </c>
-      <c r="B299" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C299" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B299" s="8"/>
+      <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
-      <c r="F299" s="5"/>
-      <c r="H299" s="5" t="s">
+      <c r="K299" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I299" s="22"/>
-      <c r="J299" s="22"/>
-      <c r="K299" s="22"/>
       <c r="L299" s="22"/>
       <c r="M299" s="22"/>
       <c r="N299" s="22"/>
       <c r="O299" s="22"/>
       <c r="P299" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
@@ -13313,27 +12862,19 @@
       <c r="A300" s="3">
         <v>299</v>
       </c>
-      <c r="B300" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B300" s="8"/>
+      <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
-      <c r="H300" s="5" t="s">
+      <c r="K300" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="22"/>
-      <c r="J300" s="22"/>
-      <c r="K300" s="22"/>
-      <c r="L300" s="31"/>
+      <c r="L300" s="22"/>
       <c r="M300" s="22"/>
       <c r="N300" s="22"/>
       <c r="O300" s="22"/>
       <c r="P300" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
@@ -13359,27 +12900,23 @@
         <v>300</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C301" s="21"/>
-      <c r="D301" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D301" s="5"/>
       <c r="E301" s="5"/>
-      <c r="F301" s="5"/>
       <c r="G301" s="5"/>
-      <c r="H301" s="5" t="s">
+      <c r="K301" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I301" s="22"/>
-      <c r="J301" s="22"/>
-      <c r="K301" s="22"/>
       <c r="L301" s="22"/>
       <c r="M301" s="22"/>
       <c r="N301" s="22"/>
       <c r="O301" s="22"/>
       <c r="P301" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
@@ -13405,28 +12942,24 @@
         <v>301</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C302" s="21"/>
-      <c r="D302" s="22"/>
-      <c r="E302" s="5" t="s">
+      <c r="D302" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F302" s="5"/>
-      <c r="G302" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H302" s="5"/>
-      <c r="J302" s="5" t="s">
+      <c r="E302" s="5"/>
+      <c r="H302" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K302" s="5"/>
+      <c r="M302" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K302" s="22"/>
-      <c r="L302" s="22"/>
-      <c r="M302" s="22"/>
       <c r="N302" s="22"/>
       <c r="O302" s="22"/>
       <c r="P302" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
@@ -13452,26 +12985,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C303" s="21"/>
-      <c r="D303" s="22"/>
-      <c r="E303" s="5" t="s">
+      <c r="D303" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F303" s="5"/>
+      <c r="E303" s="5"/>
       <c r="G303" s="5"/>
-      <c r="H303" s="5"/>
-      <c r="J303" s="5" t="s">
+      <c r="K303" s="5"/>
+      <c r="M303" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K303" s="22"/>
-      <c r="L303" s="22"/>
-      <c r="M303" s="22"/>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
@@ -13497,27 +13026,22 @@
         <v>303</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C304" s="21"/>
       <c r="D304" s="22"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="5" t="s">
+      <c r="E304" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
-      <c r="K304" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L304" s="22"/>
-      <c r="M304" s="22"/>
-      <c r="N304" s="22"/>
-      <c r="O304" s="22"/>
-      <c r="P304" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="5"/>
+      <c r="O304" s="5"/>
+      <c r="P304" s="8"/>
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
       <c r="S304" s="5"/>
@@ -13542,27 +13066,22 @@
         <v>304</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C305" s="21"/>
       <c r="D305" s="22"/>
-      <c r="E305" s="22"/>
-      <c r="F305" s="5" t="s">
+      <c r="E305" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
-      <c r="K305" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L305" s="22"/>
-      <c r="M305" s="22"/>
-      <c r="N305" s="22"/>
-      <c r="O305" s="22"/>
-      <c r="P305" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="8"/>
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
       <c r="S305" s="5"/>
@@ -13586,31 +13105,23 @@
       <c r="A306" s="3">
         <v>305</v>
       </c>
-      <c r="B306" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C306" s="21"/>
-      <c r="D306" s="22"/>
-      <c r="E306" s="22"/>
-      <c r="F306" s="22"/>
-      <c r="G306" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B306" s="8"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J306" s="5"/>
-      <c r="K306" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L306" s="22"/>
-      <c r="M306" s="22"/>
-      <c r="N306" s="22"/>
-      <c r="O306" s="22"/>
-      <c r="P306" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="8"/>
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
       <c r="S306" s="5"/>
@@ -13634,33 +13145,25 @@
       <c r="A307" s="3">
         <v>306</v>
       </c>
-      <c r="B307" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C307" s="21"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="22"/>
-      <c r="F307" s="22"/>
-      <c r="G307" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B307" s="8"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
       <c r="H307" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I307" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="I307" s="30"/>
       <c r="J307" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K307" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L307" s="22"/>
-      <c r="M307" s="22"/>
-      <c r="N307" s="22"/>
-      <c r="O307" s="22"/>
-      <c r="P307" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="8"/>
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
       <c r="S307" s="5"/>
@@ -13684,29 +13187,21 @@
       <c r="A308" s="3">
         <v>307</v>
       </c>
-      <c r="B308" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C308" s="21"/>
-      <c r="D308" s="22"/>
-      <c r="E308" s="22"/>
-      <c r="F308" s="22"/>
-      <c r="G308" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B308" s="8"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L308" s="22"/>
-      <c r="M308" s="22"/>
-      <c r="N308" s="22"/>
-      <c r="O308" s="22"/>
-      <c r="P308" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="5"/>
+      <c r="O308" s="5"/>
+      <c r="P308" s="8"/>
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
       <c r="S308" s="5"/>
@@ -13730,25 +13225,25 @@
       <c r="A309" s="3">
         <v>308</v>
       </c>
-      <c r="B309" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C309" s="21"/>
-      <c r="D309" s="22"/>
-      <c r="E309" s="22"/>
-      <c r="F309" s="22"/>
-      <c r="G309" s="22"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="H309" s="22"/>
       <c r="I309" s="22"/>
       <c r="J309" s="22"/>
-      <c r="K309" s="22"/>
-      <c r="L309" s="22"/>
-      <c r="M309" s="22"/>
-      <c r="N309" s="22"/>
-      <c r="O309" s="22"/>
-      <c r="P309" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="K309" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="8"/>
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
       <c r="S309" s="5"/>
@@ -13778,9 +13273,13 @@
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
-      <c r="H310" s="5"/>
-      <c r="I310" s="5"/>
-      <c r="J310" s="5"/>
+      <c r="H310" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I310" s="22"/>
+      <c r="J310" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K310" s="5"/>
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
@@ -13889,13 +13388,6 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
       <c r="G313" s="9"/>
-      <c r="H313" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I313" s="22"/>
-      <c r="J313" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="K313" s="9"/>
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
@@ -14009,7 +13501,7 @@
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J316" s="5"/>
       <c r="K316" s="5"/>
@@ -14274,18 +13766,15 @@
       </c>
       <c r="C323" s="21"/>
       <c r="D323" s="22"/>
-      <c r="E323" s="22"/>
-      <c r="F323" s="22"/>
-      <c r="G323" s="5" t="s">
+      <c r="E323" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I323" t="s">
-        <v>36</v>
-      </c>
-      <c r="K323" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L323" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L323" s="22"/>
       <c r="M323" s="22"/>
       <c r="N323" s="22"/>
       <c r="O323" s="22"/>
@@ -14588,14 +14077,11 @@
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
-      <c r="G331" s="22"/>
-      <c r="H331" s="22"/>
-      <c r="I331" s="22"/>
-      <c r="J331" s="5" t="s">
+      <c r="G331" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L331" t="s">
-        <v>36</v>
+      <c r="J331" t="s">
+        <v>33</v>
       </c>
       <c r="N331" s="5" t="s">
         <v>16</v>
@@ -14899,7 +14385,9 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
-      <c r="H339" s="5"/>
+      <c r="H339" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
       <c r="K339" s="5"/>
@@ -14973,16 +14461,17 @@
       <c r="C341" s="4"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
-      <c r="F341" s="5"/>
-      <c r="G341" s="5"/>
+      <c r="F341" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K341" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="K341" s="30"/>
       <c r="L341" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M341" s="5" t="s">
         <v>16</v>
@@ -15056,7 +14545,9 @@
       <c r="B343" s="8"/>
       <c r="C343" s="4"/>
       <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
+      <c r="E343" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
@@ -15136,7 +14627,9 @@
       <c r="B345" s="8"/>
       <c r="C345" s="4"/>
       <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
+      <c r="E345" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5" t="s">
         <v>16</v>
@@ -15216,7 +14709,9 @@
       <c r="B347" s="8"/>
       <c r="C347" s="4"/>
       <c r="D347" s="9"/>
-      <c r="E347" s="9"/>
+      <c r="E347" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F347" s="9"/>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
@@ -15518,11 +15013,11 @@
       <c r="B355" s="8"/>
       <c r="C355" s="4"/>
       <c r="D355" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E355" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="E355" s="30"/>
       <c r="F355" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
@@ -15530,11 +15025,11 @@
       <c r="J355" s="5"/>
       <c r="K355" s="5"/>
       <c r="L355" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M355" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="M355" s="30"/>
       <c r="N355" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O355" s="5"/>
       <c r="P355" s="8"/>
@@ -15871,29 +15366,29 @@
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D364" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="D364" s="30"/>
       <c r="E364" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
       <c r="H364" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I364" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="I364" s="30"/>
       <c r="J364" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K364" s="5"/>
       <c r="L364" s="5"/>
       <c r="M364" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N364" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="N364" s="30"/>
       <c r="O364" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P364" s="8"/>
       <c r="Q364" s="5"/>
@@ -15999,21 +15494,21 @@
       <c r="C367" s="4"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F367" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="F367" s="30"/>
       <c r="G367" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
       <c r="K367" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L367" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="L367" s="30"/>
       <c r="M367" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N367" s="5"/>
       <c r="O367" s="5"/>
@@ -16041,23 +15536,21 @@
       <c r="A368" s="3">
         <v>367</v>
       </c>
-      <c r="B368" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C368" s="16"/>
-      <c r="D368" s="17"/>
-      <c r="E368" s="17"/>
-      <c r="F368" s="17"/>
-      <c r="G368" s="17"/>
-      <c r="H368" s="17"/>
-      <c r="I368" s="17"/>
-      <c r="J368" s="17"/>
-      <c r="K368" s="17"/>
-      <c r="L368" s="17"/>
-      <c r="M368" s="17"/>
-      <c r="N368" s="17"/>
-      <c r="O368" s="17"/>
-      <c r="P368" s="18"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
+      <c r="L368" s="5"/>
+      <c r="M368" s="5"/>
+      <c r="N368" s="5"/>
+      <c r="O368" s="5"/>
+      <c r="P368" s="8"/>
       <c r="Q368" s="5"/>
       <c r="R368" s="5"/>
       <c r="S368" s="5"/>
@@ -16082,22 +15575,24 @@
         <v>368</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C369" s="16"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="17"/>
-      <c r="G369" s="17"/>
-      <c r="H369" s="17"/>
-      <c r="I369" s="17"/>
-      <c r="J369" s="17"/>
-      <c r="K369" s="17"/>
-      <c r="L369" s="17"/>
-      <c r="M369" s="17"/>
-      <c r="N369" s="17"/>
-      <c r="O369" s="17"/>
-      <c r="P369" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C369" s="21"/>
+      <c r="D369" s="22"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="22"/>
+      <c r="G369" s="22"/>
+      <c r="H369" s="22"/>
+      <c r="I369" s="22"/>
+      <c r="J369" s="22"/>
+      <c r="K369" s="22"/>
+      <c r="L369" s="22"/>
+      <c r="M369" s="22"/>
+      <c r="N369" s="22"/>
+      <c r="O369" s="22"/>
+      <c r="P369" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q369" s="5"/>
       <c r="R369" s="5"/>
       <c r="S369" s="5"/>
@@ -16388,29 +15883,17 @@
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="5"/>
-      <c r="D377" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E377" s="36"/>
-      <c r="F377" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
       <c r="G377" s="5"/>
-      <c r="H377" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I377" s="36"/>
-      <c r="J377" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
       <c r="K377" s="5"/>
-      <c r="L377" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M377" s="36"/>
-      <c r="N377" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L377" s="5"/>
+      <c r="M377" s="5"/>
+      <c r="N377" s="5"/>
       <c r="O377" s="5"/>
       <c r="P377" s="8"/>
       <c r="Q377" s="5"/>
@@ -16476,28 +15959,20 @@
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E379" s="36"/>
       <c r="F379" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G379" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="G379" s="30"/>
       <c r="H379" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I379" s="36"/>
+      <c r="I379" s="5"/>
       <c r="J379" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K379" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="K379" s="30"/>
       <c r="L379" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="M379" s="36"/>
-      <c r="N379" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O379" s="5"/>
       <c r="P379" s="8"/>
@@ -16564,27 +16039,27 @@
       <c r="B381" s="8"/>
       <c r="C381" s="4"/>
       <c r="D381" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E381" s="30"/>
+      <c r="F381" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E381" s="36"/>
-      <c r="F381" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G381" s="9"/>
       <c r="H381" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I381" s="30"/>
+      <c r="J381" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I381" s="36"/>
-      <c r="J381" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="K381" s="5"/>
       <c r="L381" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M381" s="30"/>
+      <c r="N381" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="M381" s="36"/>
-      <c r="N381" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O381" s="5"/>
       <c r="P381" s="8"/>
@@ -16611,23 +16086,21 @@
       <c r="A382" s="12">
         <v>381</v>
       </c>
-      <c r="B382" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C382" s="16"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
-      <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
-      <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
-      <c r="J382" s="17"/>
-      <c r="K382" s="17"/>
-      <c r="L382" s="17"/>
-      <c r="M382" s="17"/>
-      <c r="N382" s="17"/>
-      <c r="O382" s="17"/>
-      <c r="P382" s="18"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+      <c r="M382" s="5"/>
+      <c r="N382" s="5"/>
+      <c r="O382" s="5"/>
+      <c r="P382" s="8"/>
       <c r="Q382" s="5"/>
       <c r="R382" s="5"/>
       <c r="S382" s="5"/>
@@ -16652,22 +16125,24 @@
         <v>382</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C383" s="16"/>
-      <c r="D383" s="17"/>
-      <c r="E383" s="17"/>
-      <c r="F383" s="17"/>
-      <c r="G383" s="17"/>
-      <c r="H383" s="17"/>
-      <c r="I383" s="17"/>
-      <c r="J383" s="17"/>
-      <c r="K383" s="17"/>
-      <c r="L383" s="17"/>
-      <c r="M383" s="17"/>
-      <c r="N383" s="17"/>
-      <c r="O383" s="17"/>
-      <c r="P383" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C383" s="21"/>
+      <c r="D383" s="22"/>
+      <c r="E383" s="22"/>
+      <c r="F383" s="22"/>
+      <c r="G383" s="22"/>
+      <c r="H383" s="22"/>
+      <c r="I383" s="22"/>
+      <c r="J383" s="22"/>
+      <c r="K383" s="22"/>
+      <c r="L383" s="22"/>
+      <c r="M383" s="22"/>
+      <c r="N383" s="22"/>
+      <c r="O383" s="22"/>
+      <c r="P383" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q383" s="5"/>
       <c r="R383" s="5"/>
       <c r="S383" s="5"/>
@@ -16691,8 +16166,8 @@
       <c r="A384" s="12">
         <v>383</v>
       </c>
-      <c r="B384" s="41"/>
-      <c r="P384" s="41"/>
+      <c r="B384" s="34"/>
+      <c r="P384" s="34"/>
       <c r="Q384" s="5"/>
       <c r="R384" s="5"/>
       <c r="S384" s="5"/>
@@ -16913,7 +16388,6 @@
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
-      <c r="I390" s="5"/>
       <c r="J390" s="5"/>
       <c r="K390" s="5"/>
       <c r="L390" s="5"/>
@@ -17065,9 +16539,7 @@
       <c r="D394" s="22"/>
       <c r="E394" s="22"/>
       <c r="F394" s="22"/>
-      <c r="G394" s="22"/>
-      <c r="H394" s="22"/>
-      <c r="I394" s="5" t="s">
+      <c r="G394" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M394" s="5" t="s">
@@ -17451,7 +16923,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
       <c r="I404" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J404" s="5"/>
       <c r="K404" s="5"/>
@@ -17594,17 +17066,6 @@
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
-      <c r="G408" s="5"/>
-      <c r="H408" s="5"/>
-      <c r="I408" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J408" s="36"/>
-      <c r="K408" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L408" s="5"/>
-      <c r="M408" s="5"/>
       <c r="N408" s="5"/>
       <c r="O408" s="6"/>
       <c r="P408" s="8"/>
@@ -17636,13 +17097,6 @@
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
-      <c r="H409" s="5"/>
-      <c r="I409" s="5"/>
-      <c r="J409" s="5"/>
-      <c r="K409" s="5"/>
-      <c r="L409" s="5"/>
-      <c r="M409" s="5"/>
       <c r="N409" s="5"/>
       <c r="O409" s="6"/>
       <c r="P409" s="8"/>
@@ -17673,21 +17127,20 @@
       <c r="C410" s="4"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F410" s="5"/>
-      <c r="G410" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H410" s="22"/>
-      <c r="I410" s="22"/>
-      <c r="J410" s="22"/>
-      <c r="K410" s="22"/>
-      <c r="L410" s="22"/>
-      <c r="M410" s="22"/>
-      <c r="N410" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J410" s="30"/>
+      <c r="K410" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L410" s="5"/>
+      <c r="M410" s="5"/>
       <c r="O410" s="6"/>
       <c r="P410" s="8"/>
       <c r="Q410" s="5"/>
@@ -17756,13 +17209,16 @@
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="5"/>
+      <c r="H412" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I412" s="22"/>
+      <c r="J412" s="22"/>
+      <c r="K412" s="22"/>
+      <c r="L412" s="22"/>
+      <c r="M412" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N412" s="5"/>
       <c r="O412" s="6"/>
       <c r="P412" s="8"/>
@@ -18061,13 +17517,9 @@
       <c r="B420" s="8"/>
       <c r="C420" s="4"/>
       <c r="D420" s="5"/>
-      <c r="E420" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F420" s="22"/>
-      <c r="G420" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
@@ -18151,13 +17603,9 @@
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
-      <c r="K422" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L422" s="22"/>
-      <c r="M422" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="K422" s="5"/>
+      <c r="L422" s="5"/>
+      <c r="M422" s="5"/>
       <c r="N422" s="5"/>
       <c r="O422" s="6"/>
       <c r="P422" s="8"/>
@@ -18313,16 +17761,9 @@
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
-      <c r="I426" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K426" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L426" s="22"/>
-      <c r="M426" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="K426" s="5"/>
+      <c r="L426" s="5"/>
+      <c r="M426" s="5"/>
       <c r="N426" s="5"/>
       <c r="O426" s="6"/>
       <c r="P426" s="8"/>
@@ -18363,7 +17804,9 @@
         <v>15</v>
       </c>
       <c r="K427" s="5"/>
-      <c r="L427" s="5"/>
+      <c r="L427" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M427" s="5"/>
       <c r="N427" s="5"/>
       <c r="O427" s="6"/>
@@ -18394,13 +17837,9 @@
       <c r="B428" s="8"/>
       <c r="C428" s="4"/>
       <c r="D428" s="5"/>
-      <c r="E428" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F428" s="22"/>
-      <c r="G428" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5"/>
@@ -18441,9 +17880,7 @@
         <v>15</v>
       </c>
       <c r="E429" s="5"/>
-      <c r="F429" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F429" s="5"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
@@ -18481,7 +17918,7 @@
       <c r="C430" s="4"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
-      <c r="F430" s="27"/>
+      <c r="F430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
@@ -18519,7 +17956,7 @@
       <c r="C431" s="4"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
-      <c r="F431" s="27"/>
+      <c r="F431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
@@ -18557,7 +17994,7 @@
       <c r="C432" s="4"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
-      <c r="F432" s="27"/>
+      <c r="F432" s="5"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
@@ -18589,20 +18026,19 @@
       <c r="C433" s="4"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
-      <c r="F433" s="27"/>
+      <c r="F433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5"/>
-      <c r="K433" s="5" t="s">
+      <c r="L433" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L433" s="22"/>
       <c r="M433" s="22"/>
       <c r="N433" s="22"/>
       <c r="O433" s="23"/>
       <c r="P433" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q433" s="5"/>
       <c r="R433" s="5"/>
@@ -18630,11 +18066,8 @@
       <c r="B434" s="8"/>
       <c r="C434" s="4"/>
       <c r="E434" s="5"/>
-      <c r="F434" s="27"/>
+      <c r="F434" s="5"/>
       <c r="G434" s="5"/>
-      <c r="H434" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="I434" s="5"/>
       <c r="J434" s="5"/>
       <c r="K434" s="5"/>
@@ -18670,7 +18103,7 @@
       <c r="C435" s="4"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
-      <c r="F435" s="27"/>
+      <c r="F435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
@@ -18707,10 +18140,7 @@
       <c r="B436" s="8"/>
       <c r="C436" s="4"/>
       <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
-      <c r="F436" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F436" s="5"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
@@ -18746,10 +18176,10 @@
       </c>
       <c r="B437" s="8"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E437" s="5"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
@@ -18825,21 +18255,21 @@
       <c r="B439" s="8"/>
       <c r="C439" s="4"/>
       <c r="D439" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E439" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="E439" s="30"/>
       <c r="F439" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
       <c r="J439" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K439" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="K439" s="30"/>
       <c r="L439" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M439" s="5"/>
       <c r="N439" s="5"/>
@@ -18869,7 +18299,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C440" s="16"/>
       <c r="D440" s="17"/>
@@ -18909,7 +18339,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C441" s="16"/>
       <c r="D441" s="17"/>
@@ -19187,7 +18617,7 @@
       <c r="J448" s="5"/>
       <c r="K448" s="5"/>
       <c r="L448" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M448" s="5"/>
       <c r="N448" s="5"/>
@@ -19415,7 +18845,7 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K454" s="5"/>
       <c r="L454" s="5"/>
@@ -19643,7 +19073,7 @@
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I460" s="5"/>
       <c r="J460" s="5"/>
@@ -19869,7 +19299,7 @@
       <c r="B466" s="8"/>
       <c r="C466" s="4"/>
       <c r="D466" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
@@ -20023,7 +19453,7 @@
       <c r="B470" s="8"/>
       <c r="C470" s="4"/>
       <c r="D470" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
@@ -20061,7 +19491,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C471" s="16"/>
       <c r="D471" s="17"/>
@@ -20101,7 +19531,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C472" s="16"/>
       <c r="D472" s="17"/>
@@ -20141,7 +19571,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C473" s="16"/>
       <c r="D473" s="17"/>
@@ -20181,7 +19611,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C474" s="16"/>
       <c r="D474" s="17"/>
@@ -20221,7 +19651,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C475" s="16"/>
       <c r="D475" s="17"/>
@@ -20261,7 +19691,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C476" s="16"/>
       <c r="D476" s="17"/>
@@ -20301,7 +19731,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C477" s="16"/>
       <c r="D477" s="17"/>
@@ -20341,7 +19771,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C478" s="16"/>
       <c r="D478" s="17"/>
@@ -20381,7 +19811,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C479" s="16"/>
       <c r="D479" s="17"/>
@@ -20421,7 +19851,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C480" s="16"/>
       <c r="D480" s="17"/>
@@ -20461,7 +19891,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C481" s="16"/>
       <c r="D481" s="17"/>
@@ -20501,7 +19931,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C482" s="16"/>
       <c r="D482" s="17"/>
@@ -20541,7 +19971,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C483" s="16"/>
       <c r="D483" s="17"/>
@@ -20581,7 +20011,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C484" s="16"/>
       <c r="D484" s="17"/>
@@ -20621,7 +20051,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C485" s="16"/>
       <c r="D485" s="17"/>
@@ -20661,7 +20091,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C486" s="17"/>
       <c r="D486" s="17"/>
@@ -20701,7 +20131,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C487" s="16"/>
       <c r="D487" s="17"/>
@@ -20741,7 +20171,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C488" s="16"/>
       <c r="D488" s="17"/>
@@ -20781,7 +20211,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C489" s="16"/>
       <c r="D489" s="17"/>
@@ -20821,7 +20251,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C490" s="16"/>
       <c r="D490" s="17"/>
@@ -20861,7 +20291,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C491" s="16"/>
       <c r="D491" s="17"/>
@@ -21319,7 +20749,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="5"/>
@@ -21554,7 +20984,7 @@
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
       <c r="G509" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
@@ -21669,7 +21099,7 @@
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="5"/>
@@ -21822,7 +21252,7 @@
       <c r="C516" s="4"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F516" s="5"/>
       <c r="G516" s="5"/>
@@ -21975,7 +21405,7 @@
       <c r="C520" s="4"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
@@ -22128,7 +21558,7 @@
       <c r="C524" s="4"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
@@ -22325,7 +21755,7 @@
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="J529" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K529" s="5"/>
       <c r="L529" s="5"/>
@@ -22473,11 +21903,11 @@
       <c r="C533" s="4"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F533" s="30"/>
+      <c r="G533" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F533" s="36"/>
-      <c r="G533" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
@@ -22512,7 +21942,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C534" s="16"/>
       <c r="D534" s="17"/>
@@ -22552,7 +21982,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C535" s="16"/>
       <c r="D535" s="17"/>
@@ -22730,7 +22160,7 @@
         <v>15</v>
       </c>
       <c r="K539" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L539" s="5"/>
       <c r="M539" s="5"/>
@@ -22817,7 +22247,7 @@
       <c r="J541" s="5"/>
       <c r="K541" s="5"/>
       <c r="M541" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N541" s="5"/>
       <c r="O541" s="6"/>
@@ -23027,10 +22457,10 @@
       <c r="K546" s="5"/>
       <c r="L546" s="5"/>
       <c r="M546" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N546" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O546" s="6"/>
       <c r="P546" s="8"/>
@@ -23058,7 +22488,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C547" s="16"/>
       <c r="D547" s="17"/>
@@ -23098,7 +22528,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C548" s="16"/>
       <c r="D548" s="17"/>
@@ -23138,7 +22568,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C549" s="16"/>
       <c r="D549" s="17"/>
@@ -23178,7 +22608,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C550" s="16"/>
       <c r="D550" s="17"/>
@@ -23218,7 +22648,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C551" s="16"/>
       <c r="D551" s="17"/>
@@ -23258,7 +22688,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C552" s="16"/>
       <c r="D552" s="17"/>
@@ -23298,7 +22728,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C553" s="16"/>
       <c r="D553" s="17"/>
@@ -23338,7 +22768,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C554" s="16"/>
       <c r="D554" s="17"/>
@@ -23378,7 +22808,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C555" s="16"/>
       <c r="D555" s="17"/>
@@ -23418,7 +22848,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C556" s="16"/>
       <c r="D556" s="17"/>
@@ -23458,7 +22888,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C557" s="16"/>
       <c r="D557" s="17"/>
@@ -23498,7 +22928,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C558" s="16"/>
       <c r="D558" s="17"/>
@@ -23538,7 +22968,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C559" s="16"/>
       <c r="D559" s="17"/>
@@ -23578,7 +23008,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C560" s="16"/>
       <c r="D560" s="17"/>
@@ -23618,7 +23048,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C561" s="16"/>
       <c r="D561" s="17"/>
@@ -23658,7 +23088,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C562" s="16"/>
       <c r="D562" s="17"/>
@@ -23698,7 +23128,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C563" s="16"/>
       <c r="D563" s="17"/>
@@ -23738,7 +23168,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C564" s="16"/>
       <c r="D564" s="17"/>
@@ -23778,7 +23208,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C565" s="16"/>
       <c r="D565" s="17"/>
@@ -23818,7 +23248,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C566" s="16"/>
       <c r="D566" s="17"/>
@@ -23858,7 +23288,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C567" s="16"/>
       <c r="D567" s="17"/>
@@ -23898,7 +23328,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C568" s="16"/>
       <c r="D568" s="17"/>
@@ -23938,7 +23368,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C569" s="16"/>
       <c r="D569" s="17"/>
@@ -23978,7 +23408,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C570" s="16"/>
       <c r="D570" s="17"/>
@@ -24018,7 +23448,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C571" s="16"/>
       <c r="D571" s="17"/>
@@ -24058,7 +23488,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C572" s="16"/>
       <c r="D572" s="17"/>
@@ -24440,7 +23870,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="5"/>
@@ -24485,7 +23915,7 @@
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
       <c r="G583" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H583" s="5"/>
       <c r="I583" s="5"/>
@@ -24714,7 +24144,7 @@
       <c r="G588" s="5"/>
       <c r="H588" s="5"/>
       <c r="I588" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J588" s="5"/>
       <c r="K588" s="5"/>
@@ -24948,7 +24378,7 @@
       <c r="J593" s="5"/>
       <c r="K593" s="5"/>
       <c r="L593" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M593" s="5"/>
       <c r="N593" s="5" t="s">
@@ -25178,7 +24608,7 @@
       <c r="I598" s="5"/>
       <c r="J598" s="5"/>
       <c r="K598" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L598" s="5"/>
       <c r="M598" s="5"/>
@@ -25357,7 +24787,7 @@
       <c r="G602" s="5"/>
       <c r="H602" s="5"/>
       <c r="I602" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J602" s="5"/>
       <c r="K602" s="5"/>
@@ -25510,11 +24940,11 @@
       <c r="F606" s="5"/>
       <c r="G606" s="5"/>
       <c r="H606" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I606" s="30"/>
+      <c r="J606" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I606" s="36"/>
-      <c r="J606" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="K606" s="5"/>
       <c r="L606" s="5"/>
@@ -25546,7 +24976,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C607" s="16"/>
       <c r="D607" s="17"/>
@@ -25586,7 +25016,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C608" s="16"/>
       <c r="D608" s="17"/>
@@ -25935,11 +25365,11 @@
       <c r="C617" s="21"/>
       <c r="D617" s="22"/>
       <c r="E617" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G617" s="5"/>
       <c r="I617" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J617" s="22"/>
       <c r="K617" s="22"/>
@@ -25979,11 +25409,11 @@
       <c r="C618" s="21"/>
       <c r="D618" s="22"/>
       <c r="E618" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G618" s="5"/>
       <c r="I618" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J618" s="22"/>
       <c r="K618" s="22"/>
@@ -26098,7 +25528,7 @@
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
       <c r="G621" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
@@ -26133,7 +25563,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C622" s="16"/>
       <c r="D622" s="17"/>
@@ -26173,7 +25603,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C623" s="16"/>
       <c r="D623" s="17"/>
@@ -26213,7 +25643,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C624" s="16"/>
       <c r="D624" s="17"/>
@@ -26253,7 +25683,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C625" s="16"/>
       <c r="D625" s="17"/>
@@ -26293,7 +25723,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C626" s="16"/>
       <c r="D626" s="17"/>
@@ -26333,7 +25763,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C627" s="16"/>
       <c r="D627" s="17"/>
@@ -26373,7 +25803,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C628" s="16"/>
       <c r="D628" s="17"/>
@@ -26413,7 +25843,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C629" s="16"/>
       <c r="D629" s="17"/>
@@ -26453,7 +25883,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C630" s="16"/>
       <c r="D630" s="17"/>
@@ -26493,7 +25923,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C631" s="16"/>
       <c r="D631" s="17"/>
@@ -26533,7 +25963,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C632" s="16"/>
       <c r="D632" s="17"/>
@@ -26573,7 +26003,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C633" s="16"/>
       <c r="D633" s="17"/>
@@ -26613,7 +26043,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C634" s="16"/>
       <c r="D634" s="17"/>
@@ -26653,7 +26083,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C635" s="16"/>
       <c r="D635" s="17"/>
@@ -26693,7 +26123,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C636" s="16"/>
       <c r="D636" s="17"/>
@@ -26733,7 +26163,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C637" s="16"/>
       <c r="D637" s="17"/>
@@ -26773,7 +26203,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C638" s="16"/>
       <c r="D638" s="17"/>
@@ -26813,7 +26243,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C639" s="16"/>
       <c r="D639" s="17"/>
@@ -26853,7 +26283,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C640" s="16"/>
       <c r="D640" s="17"/>
@@ -26893,7 +26323,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C641" s="16"/>
       <c r="D641" s="17"/>
@@ -26933,7 +26363,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C642" s="16"/>
       <c r="D642" s="17"/>
@@ -26973,7 +26403,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C643" s="16"/>
       <c r="D643" s="17"/>
@@ -27013,7 +26443,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C644" s="16"/>
       <c r="D644" s="17"/>
@@ -27053,7 +26483,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C645" s="16"/>
       <c r="D645" s="17"/>
@@ -27093,7 +26523,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C646" s="16"/>
       <c r="D646" s="17"/>
@@ -27133,7 +26563,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C647" s="16"/>
       <c r="D647" s="17"/>
@@ -27173,7 +26603,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C648" s="16"/>
       <c r="D648" s="17"/>
@@ -27213,7 +26643,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C649" s="16"/>
       <c r="D649" s="17"/>
@@ -27253,7 +26683,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C650" s="16"/>
       <c r="D650" s="17"/>
@@ -27293,7 +26723,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C651" s="16"/>
       <c r="D651" s="17"/>
@@ -27333,7 +26763,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C652" s="16"/>
       <c r="D652" s="17"/>
@@ -27373,7 +26803,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C653" s="16"/>
       <c r="D653" s="17"/>
@@ -27413,7 +26843,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C654" s="16"/>
       <c r="D654" s="17"/>
@@ -27453,7 +26883,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C655" s="16"/>
       <c r="D655" s="17"/>
@@ -27493,7 +26923,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C656" s="16"/>
       <c r="D656" s="17"/>
@@ -27533,7 +26963,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C657" s="16"/>
       <c r="D657" s="17"/>
@@ -27573,7 +27003,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C658" s="16"/>
       <c r="D658" s="17"/>
@@ -27613,7 +27043,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C659" s="16"/>
       <c r="D659" s="17"/>
@@ -27653,7 +27083,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C660" s="16"/>
       <c r="D660" s="17"/>
@@ -27693,7 +27123,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C661" s="16"/>
       <c r="D661" s="17"/>
@@ -27733,7 +27163,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C662" s="16"/>
       <c r="D662" s="17"/>
@@ -27773,7 +27203,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C663" s="16"/>
       <c r="D663" s="17"/>
@@ -27813,7 +27243,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C664" s="16"/>
       <c r="D664" s="17"/>
@@ -27853,7 +27283,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C665" s="16"/>
       <c r="D665" s="17"/>
@@ -27893,7 +27323,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C666" s="16"/>
       <c r="D666" s="17"/>
@@ -27933,7 +27363,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C667" s="16"/>
       <c r="D667" s="17"/>
@@ -27973,7 +27403,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C668" s="16"/>
       <c r="D668" s="17"/>
@@ -28013,7 +27443,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C669" s="16"/>
       <c r="D669" s="17"/>
@@ -28053,7 +27483,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C670" s="16"/>
       <c r="D670" s="17"/>
@@ -28093,7 +27523,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C671" s="16"/>
       <c r="D671" s="17"/>
@@ -28133,7 +27563,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C672" s="16"/>
       <c r="D672" s="17"/>
@@ -28173,7 +27603,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C673" s="16"/>
       <c r="D673" s="17"/>
@@ -28213,7 +27643,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C674" s="16"/>
       <c r="D674" s="17"/>
@@ -28253,7 +27683,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C675" s="16"/>
       <c r="D675" s="17"/>
@@ -28293,7 +27723,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C676" s="16"/>
       <c r="D676" s="17"/>
@@ -28333,7 +27763,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C677" s="16"/>
       <c r="D677" s="17"/>
@@ -28373,7 +27803,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C678" s="16"/>
       <c r="D678" s="17"/>
@@ -28413,7 +27843,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C679" s="16"/>
       <c r="D679" s="17"/>
@@ -28453,7 +27883,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C680" s="16"/>
       <c r="D680" s="17"/>
@@ -28493,7 +27923,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C681" s="16"/>
       <c r="D681" s="17"/>
@@ -28533,7 +27963,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C682" s="16"/>
       <c r="D682" s="17"/>
@@ -28573,7 +28003,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C683" s="16"/>
       <c r="D683" s="17"/>
@@ -28613,7 +28043,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C684" s="16"/>
       <c r="D684" s="17"/>
@@ -28653,7 +28083,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C685" s="16"/>
       <c r="D685" s="17"/>
@@ -29075,7 +28505,7 @@
       <c r="C696" s="4"/>
       <c r="D696" s="5"/>
       <c r="F696" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G696" s="5"/>
       <c r="H696" s="5"/>
@@ -29233,7 +28663,7 @@
       <c r="I700" s="5"/>
       <c r="J700" s="5"/>
       <c r="K700" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L700" s="5"/>
       <c r="M700" s="5"/>
@@ -29304,14 +28734,14 @@
       <c r="B702" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C702" s="31"/>
-      <c r="D702" s="31"/>
-      <c r="E702" s="31"/>
-      <c r="F702" s="31"/>
-      <c r="G702" s="31"/>
-      <c r="H702" s="31"/>
-      <c r="I702" s="31"/>
-      <c r="J702" s="31"/>
+      <c r="C702" s="26"/>
+      <c r="D702" s="26"/>
+      <c r="E702" s="26"/>
+      <c r="F702" s="26"/>
+      <c r="G702" s="26"/>
+      <c r="H702" s="26"/>
+      <c r="I702" s="26"/>
+      <c r="J702" s="26"/>
       <c r="K702" t="s">
         <v>15</v>
       </c>
@@ -29353,7 +28783,7 @@
       <c r="L703" s="5"/>
       <c r="M703" s="5"/>
       <c r="N703" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O703" s="6"/>
       <c r="P703" s="8"/>
@@ -29465,7 +28895,7 @@
       <c r="I706" s="5"/>
       <c r="J706" s="5"/>
       <c r="K706" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L706" s="5"/>
       <c r="M706" s="5"/>
@@ -29576,7 +29006,7 @@
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
       <c r="G709" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H709" s="5"/>
       <c r="I709" s="5"/>
@@ -29614,7 +29044,7 @@
       <c r="C710" s="4"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
-      <c r="P710" s="41"/>
+      <c r="P710" s="34"/>
       <c r="Q710" s="5"/>
       <c r="R710" s="5"/>
       <c r="S710" s="5"/>
@@ -29842,7 +29272,7 @@
       <c r="I716" s="5"/>
       <c r="J716" s="5"/>
       <c r="K716" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L716" s="5"/>
       <c r="M716" s="5"/>
@@ -29988,7 +29418,7 @@
       <c r="B720" s="8"/>
       <c r="C720" s="4"/>
       <c r="D720" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
@@ -30142,7 +29572,7 @@
       <c r="C724" s="4"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F724" s="5"/>
       <c r="G724" s="5"/>
@@ -30297,7 +29727,7 @@
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
       <c r="F728" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G728" s="5"/>
       <c r="H728" s="5"/>
@@ -30488,11 +29918,11 @@
       <c r="C733" s="4"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F733" s="30"/>
+      <c r="G733" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F733" s="36"/>
-      <c r="G733" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H733" s="5"/>
       <c r="I733" s="5"/>
@@ -30527,7 +29957,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C734" s="16"/>
       <c r="D734" s="17"/>
@@ -30567,7 +29997,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C735" s="16"/>
       <c r="D735" s="17"/>
@@ -30607,7 +30037,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C736" s="21"/>
       <c r="D736" s="22"/>
@@ -30615,19 +30045,19 @@
       <c r="F736" s="22"/>
       <c r="G736" s="22"/>
       <c r="H736" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I736" s="5"/>
       <c r="J736" s="5"/>
       <c r="K736" s="5"/>
       <c r="L736" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M736" s="22"/>
       <c r="N736" s="22"/>
       <c r="O736" s="23"/>
       <c r="P736" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q736" s="5"/>
       <c r="R736" s="5"/>
@@ -31073,7 +30503,7 @@
         <v>15</v>
       </c>
       <c r="I747" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K747" s="5" t="s">
         <v>16</v>
@@ -31229,23 +30659,23 @@
         <v>750</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C751" s="32"/>
-      <c r="D751" s="33"/>
-      <c r="E751" s="33"/>
-      <c r="F751" s="33"/>
-      <c r="G751" s="33"/>
-      <c r="H751" s="33"/>
-      <c r="I751" s="33"/>
-      <c r="J751" s="33"/>
-      <c r="K751" s="33"/>
-      <c r="L751" s="33"/>
-      <c r="M751" s="33"/>
-      <c r="N751" s="33"/>
-      <c r="O751" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="C751" s="27"/>
+      <c r="D751" s="28"/>
+      <c r="E751" s="28"/>
+      <c r="F751" s="28"/>
+      <c r="G751" s="28"/>
+      <c r="H751" s="28"/>
+      <c r="I751" s="28"/>
+      <c r="J751" s="28"/>
+      <c r="K751" s="28"/>
+      <c r="L751" s="28"/>
+      <c r="M751" s="28"/>
+      <c r="N751" s="28"/>
+      <c r="O751" s="29"/>
       <c r="P751" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q751" s="5"/>
       <c r="R751" s="5"/>
